--- a/2019-6月.xlsx
+++ b/2019-6月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="16895" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>电影《贫民窟的百万富翁》</t>
   </si>
@@ -46,6 +46,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The Dragon Boat Festival</t>
     </r>
     <r>
@@ -107,6 +114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dragon boat racing</t>
     </r>
     <r>
@@ -146,6 +160,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Turn on the juice</t>
     </r>
     <r>
@@ -161,6 +182,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>打开电源</t>
     </r>
     <r>
@@ -189,6 +217,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Look out! She's going to faint！I'm afraid she's </t>
     </r>
     <r>
@@ -214,6 +249,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>小心，她要晕倒了！我估计她又</t>
     </r>
     <r>
@@ -251,6 +293,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The juice man</t>
     </r>
     <r>
@@ -266,6 +315,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>高利贷者</t>
     </r>
     <r>
@@ -318,6 +374,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他们的考试不止一种，通常会有</t>
     </r>
     <r>
@@ -450,6 +513,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'm using my </t>
     </r>
     <r>
@@ -475,6 +545,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>WiFi不能用了，所以我在用</t>
     </r>
     <r>
@@ -541,6 +618,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>直译的话，那就是“猪会飞”，但实际上，猪是不会飞的，所以这句话的意思就是“</t>
     </r>
     <r>
@@ -572,6 +656,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I should apologize to him? </t>
     </r>
     <r>
@@ -587,6 +678,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我该向他道歉吗？</t>
     </r>
     <r>
@@ -608,6 +706,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">We are both so happy, like </t>
     </r>
     <r>
@@ -633,6 +738,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们养尊处优，生活的非常幸福！                                     在汉语中，“猪”也经常作为骂人的词汇，被玩出各种花样，比方说“死猪”“懒猪”“肥猪”等，                                            但在英语中，pig有时会代表着美好的意象，比方说：
 pigs in the clover
 clover的意思是“三叶草”。三叶草在英语文化中代表着幸运幸福，pigs in the clover的意思就是“幸运的就像三叶草中的猪一样”，代表着“</t>
@@ -663,6 +775,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Learning to use a greeting in the </t>
     </r>
     <r>
@@ -688,6 +807,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>学会用</t>
     </r>
     <r>
@@ -753,6 +879,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Let your </t>
     </r>
     <r>
@@ -838,6 +971,375 @@
   </si>
   <si>
     <t>让梦想大于胆怯，让行动强于语言.</t>
+  </si>
+  <si>
+    <t>1.It's almost nine. Time to bed.
+2.But I don't feel sleepy at all.
+3.You'd better hurry. 
+4.Don't rush me.
+5.Go to bed before nine.
+6.You need to get enough sleep.</t>
+  </si>
+  <si>
+    <t>1.快9点了，该睡觉了。
+2.可我一点也不困。
+3.你最好快点。
+4.别催我。
+5.9点前上床
+6.你需要足够的睡眠。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No matter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how many mistakes you make</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how slowly you make progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  you are already </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ahead of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> those who never tried.</t>
+    </r>
+  </si>
+  <si>
+    <t>无论你犯了多少错，或者进步得有多慢，你都走在了那些不曾尝试的人的前面。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> high time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that we met him at the airport.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到了我们去机场接他的时候了。                                                                                             high time的说法，起源于十三世纪。
+当时的社会分工比较明确，最大众的职业就是农民。
+在劳作中，high time就诞生了它的第一个意思，一天中最热的时间段。因为劳动人民会在最热的时间去休息，所以high time又引申出了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“到了该做某事的时候”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> high time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that you started working.</t>
+    </r>
+  </si>
+  <si>
+    <t>你早该开始工作了。</t>
+  </si>
+  <si>
+    <t>如果是中国人的话，自然能理解我们所说的high的含义，那就是“开心，畅快”，但在英文中，high却没有这一层意思，相反，high的用法会与毒品有关。
+人们会用high来表示吸毒之后的那种飘飘然的状态。总之，是一个不能随便乱用的词。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You should have come with us last night, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>had a real blast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>昨天晚上你应该跟我们一起来，我们昨晚开心到爆炸！                  blast，原意是“爆炸，突如其来的强劲气流”，have a blast意思就是“狂欢，开心到爆炸，爽爆了”。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And what are you doing to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get crazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>你会通过哪些方式去找点乐子？                                      还有一种更简单的说法是get crazy，意思是“爽疯了，玩疯了”，也就是我们所说的“一起嗨”的意思。这个词通常在酒吧、演唱会等场合使用。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Are you guys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feeling pumped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你们感到兴奋吗？                                                    如果你本身心情低落，但经过愉快的玩耍，或者是某人开导之后，重新振作鼓舞起来，身上就像拥有了使不完的劲，那么就可以说：
+Feeling pumped
+pump是打气的意思，心情像被打过气，鼓舞起来，也可以指“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加油打气，摩拳擦掌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。在比赛前，教练或者队长，通常会对队员打气助威。也可以说成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feeling psyched</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，或者是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>psych sb up</t>
+    </r>
+  </si>
+  <si>
+    <t>Your fly is open.</t>
+  </si>
+  <si>
+    <t>你裤子拉链没有拉上。fly做名词，“纽扣盖”，也就是拉链前面的布</t>
   </si>
   <si>
     <t>命运女神（the Fates）：掌管大地上所有人的命运。共有三位：克罗托（Clotho）纺织生命之线，拉刻西斯（Lachesis）决定生命之线的长度，阿特洛波斯（Atropos）切断生命之线。
@@ -853,12 +1355,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,9 +1383,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +1401,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,7 +1415,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,47 +1452,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -979,24 +1497,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,11 +1513,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,6 +1533,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1041,73 +1551,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,6 +1707,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1131,91 +1725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,36 +1742,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1285,26 +1765,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,6 +1803,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1340,10 +1850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1352,133 +1862,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1854,8 +2364,8 @@
   <sheetPr/>
   <dimension ref="A2:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2212,14 +2722,83 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" ht="216" spans="1:1">
+    <row r="40" ht="86.4" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" ht="43.2" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" ht="115.2" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" ht="72" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" ht="43.2" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" ht="43.2" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" ht="115.2" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" ht="201.6" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" ht="158.4" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" ht="144" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/2019-6月.xlsx
+++ b/2019-6月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16895" windowHeight="9647"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>电影《贫民窟的百万富翁》</t>
   </si>
@@ -506,10 +506,71 @@
     <t>child-free 没有孩子。有些没有儿童的场景比如酒吧、度假村等，也会有child-free的标志</t>
   </si>
   <si>
-    <t>It will require 3 GB of space on your file system.</t>
-  </si>
-  <si>
-    <t>它将需要在您的文件系统中占用3GB空间。                             KB（千字节），MB（兆字节），TB（太字节），PB（拍字节）          Gigabyte，意思是“十亿字节”，在中国又被称为吉字节</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It will require </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 GB of space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on your file system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>它将需要在您的文件系统中占用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3GB空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。                             KB（千字节），MB（兆字节），TB（太字节），PB（拍字节）          Gigabyte，意思是“十亿字节”，在中国又被称为吉字节</t>
+    </r>
+  </si>
+  <si>
+    <t>"封杀"的意思是禁止，不允许，英语中有ban,prohibit.prevent等同义词说法。最常见的是ban，to ban sb./sth. from doing sth.</t>
   </si>
   <si>
     <r>
@@ -578,6 +639,9 @@
     </r>
   </si>
   <si>
+    <t>老板、头头、重要人物：big cheese、big fish、big gun、big shot、big wheel</t>
+  </si>
+  <si>
     <t>The Fifth-Generation mobile phone 5G手机              The Fifth-Generation network 5G网络</t>
   </si>
   <si>
@@ -771,7 +835,39 @@
     </r>
   </si>
   <si>
-    <t>You know. I m really glad you decided to learn mandarin.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You know. I m really glad you decided to learn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandarin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>我很高兴你决定学习普通话。</t>
   </si>
   <si>
     <r>
@@ -1342,6 +1438,960 @@
     <t>你裤子拉链没有拉上。fly做名词，“纽扣盖”，也就是拉链前面的布</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I will spare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>certain people</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heartache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mentioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any country names here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这些国家的名字这里我就不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，以免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>某些人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>听了之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扎心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。                外交部发言人所使用的heartache原意是“心痛、心绞痛”，在这里用出了一种“心肌梗塞”的感觉，扎心的画面感一下子就出来了。</t>
+    </r>
+  </si>
+  <si>
+    <t>Facts have shown that justice will prevail.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">公道自在人心。                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果直译的话，意思就是“事实证明，正义终将获胜”， 也可以将之理解为“人在做天在看”。</t>
+    </r>
+  </si>
+  <si>
+    <t>The greatest regret in life is the wrong persistence and easily give up</t>
+  </si>
+  <si>
+    <t>人生最大的遗憾，莫过于错误的坚持，和轻易的放弃。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.Mom, there isn't enough room for my water bottle.
+2.You can carry it in another bag.
+3.Put your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pocket money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and keys in this small pocket.
+4.Yes, it's much safer to put them there.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.妈妈，我的水瓶放不下了。
+2.你可以装在另一个袋里。
+3.把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零花钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和钥匙放在这个小袋里。
+4.是的，放在那里更安全。</t>
+    </r>
+  </si>
+  <si>
+    <t>表达悲伤：sad/depression/dejection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/在英文中，老外表达“不开心”的情绪，并不会经常使用到sad.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个很初级的词汇，能够表达到的情绪很有限，在很多时候，一个人情绪中的悲伤，不是一个小小的sad所能呈现的。               2/“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”是我们经常听到的一个词，它更倾向于“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抑郁，极度沮丧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，带有意志力的萧条，表现出的是一种精神上的状态。                3/与sad和Depression不同，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dejection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黯然神伤，情绪低落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，呈现的是一种“失意”或者“丧气”的感觉。
+比方说，约会被鸽，告白被拒，考试失败。                      4/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Despair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [dɪˈsper] 绝望，失去信心 难过到了极限，一个人就会感觉到“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。                                                               5/作为一个单身狗，卡卡也偶尔会感到“难过”。但这种难过的情绪，其实是一种“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沉闷、消极</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，在英语中，经常会用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gloom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来表达。
+Gloom还可以来表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天气阴沉，环境阴暗，气氛沉闷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。                            6/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sorrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个真的很悲伤的词。
+它所表达的痛苦，是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>因失去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（多数指死亡）而造成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>极度悲伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的情绪。    桐华曾说过：  
+伤心是伤心，颓废是颓废，伤心是因为过去，颓废毁灭的却是未来，永远不要拿颓废当伤心，用未来为过去陪葬。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She is in a state of deep </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>depression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>她处于深深的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沮丧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Her face showed her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dejection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at missing the party.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>她因错过聚会而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黯然神伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The loser sat slumped in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dejection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>失败者失落地坐着，全身瘫软。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oh, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>despair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sometimes,' he says in mock sorrow...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“啊，我有时会感到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，”他假装悲伤地说。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He gave up the struggle in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>despair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地放弃了斗争。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poets were often visited by fits of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gloom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>诗人常有一阵阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忧郁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An old man was sitting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the gloom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在阴暗处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坐着一位老人。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Her eyes dimmed with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorrow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>悲痛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之下，她泪眼蒙眬。</t>
+    </r>
+  </si>
+  <si>
+    <t>Follow your heart. It's never  too late.</t>
+  </si>
+  <si>
+    <t>听从你的心.永远不嫌晚。</t>
+  </si>
+  <si>
+    <t>Wake up, sleepyhead. 
+One more minute. 
+It's time to get up. 
+It's still early. I want to sleep some more. 
+But you move so slowly. 
+Get up, or you'll be late. 
+Ok, but I'm still sleepy.</t>
+  </si>
+  <si>
+    <t>起床了，小懒虫。
+再睡一分钟。
+该起床了。
+还早呢，我想再睡一会儿。
+但是你很磨蹭。
+起床了，要不就要迟到了。
+好的，可我还困着呢。</t>
+  </si>
+  <si>
+    <t>The alarm clock went off.
+Get up right away.
+Give me five more minutes to snooze. 
+Mom, it's too late. 
+Did you set the alarm clock last night? 
+Yes, I set it for six thirty. 
+Why didn't the alarm go off? 
+I didn't let it go off. 
+I wanted you to sleep more.                                Do you like to sleep in ？
+Did you get up when your alarm clock went off?</t>
+  </si>
+  <si>
+    <t>闹钟响了，
+快起床。
+再让我小睡5分钟。
+妈妈，太晚了，
+昨晚你设闹钟了吗？
+设了呀，我设在6点半了。
+闹钟怎么没响呢？
+我没让它响，
+我想让你多睡会儿。                                                你喜欢睡懒觉？
+闹铃响你就起床了吗？</t>
+  </si>
+  <si>
     <t>命运女神（the Fates）：掌管大地上所有人的命运。共有三位：克罗托（Clotho）纺织生命之线，拉刻西斯（Lachesis）决定生命之线的长度，阿特洛波斯（Atropos）切断生命之线。
 美惠三女神（The Graces）：宙斯和欧律诺墨的女儿；众神的歌舞演员，为人间带来诸美；分别是阿格莱亚（Aglaia,光辉女神）, 欧佛洛绪涅（Euphrosyne,欢乐女神）,塔利亚（Thalia,激励女神）。
 艺术女神（The Muses）：宙斯和泰坦Mnemosyne的女儿们，共有九人；亦称为缪斯或庇厄利亚的女神们（Pierides），因她们生于庇厄利亚地方。她们是卡拉培（Calliope，雄辩和叙事诗），克利欧（Clio，历史），乌拉妮娅（Urania，天文），梅耳珀弥妮（Melpomene，悲剧），塔利亚（Thalia，喜剧），特普斯歌利（Terpsichore，舞蹈），依蕾托（Erato，爱情诗），波利海妮娅（Polyhymnia，颂歌），优忒毗（Euterpe,抒情诗）。</t>
@@ -1355,10 +2405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1383,62 +2433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1459,7 +2455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,6 +2469,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1482,15 +2493,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1505,8 +2508,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1520,8 +2531,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,13 +2601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,7 +2637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,19 +2661,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,127 +2775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,20 +2797,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1776,6 +2815,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1798,47 +2887,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,10 +2900,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1862,137 +2912,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2011,7 +3061,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2362,10 +3424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C93"/>
+  <dimension ref="A2:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2597,208 +3659,345 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" ht="43.2" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23" ht="57.6" spans="1:3">
+      <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" ht="72" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" ht="72" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>76</v>
+      <c r="A31" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" ht="28.8" spans="1:2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" ht="129.6" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" ht="43.2" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" ht="28.8" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="43.2" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" ht="115.2" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" ht="43.2" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" ht="115.2" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" ht="201.6" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" ht="144" spans="1:1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" ht="43.2" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" ht="43.2" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" ht="28.8" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" ht="86.4" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" ht="273.6" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" ht="100.8" spans="1:2">
+      <c r="A63" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" ht="158.4" spans="1:2">
+      <c r="A64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" ht="201.6" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" ht="144" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/2019-6月.xlsx
+++ b/2019-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>电影《贫民窟的百万富翁》</t>
   </si>
@@ -648,36 +648,54 @@
     <t>4G、5G  Generation [ˌdʒɛnəˈreʃən]中文含义：代</t>
   </si>
   <si>
+    <t>KOL全称Key Opinion Leader ‘意见领袖’的意思。也就是大佬、大V、网红牛人</t>
+  </si>
+  <si>
     <t>It's none of your business</t>
   </si>
   <si>
     <t>与你无关，关你屁事    (这句话本身自带怼人属性)</t>
   </si>
   <si>
+    <t>red lanterns红灯笼 (四级翻译题)</t>
+  </si>
+  <si>
     <t>This is a family matter, it's none of your business.</t>
   </si>
   <si>
     <t>这是我们的家事。与你无关！</t>
   </si>
   <si>
+    <t>The Lantern Festival元宵节</t>
+  </si>
+  <si>
     <t>It doesn't concern you at all.</t>
   </si>
   <si>
     <t>这件事情和你没有关系。</t>
   </si>
   <si>
+    <t>Hot water room开水间(标准译法)</t>
+  </si>
+  <si>
     <t>It was just a little unfinished business from my past, and it doesn't concern you at all.</t>
   </si>
   <si>
     <t>这只是我一点没有完成的事情，和你没有关系。</t>
   </si>
   <si>
+    <t>boiled water supply热水提供处</t>
+  </si>
+  <si>
     <t>That's not my (fucking) problem！</t>
   </si>
   <si>
     <t>表示某一件事情与自己没有关系,表达强烈的情绪，可以加上万能的fucking</t>
   </si>
   <si>
+    <t>water heater room“加热器”但也可以表示“热水间”</t>
+  </si>
+  <si>
     <t>Pigs might fly</t>
   </si>
   <si>
@@ -713,10 +731,16 @@
     </r>
   </si>
   <si>
+    <t>Yellow Line安全线</t>
+  </si>
+  <si>
     <t>I get the scholarship, and pigs might fly.</t>
   </si>
   <si>
     <t>如果我拿到这个奖学金，猪都会飞了。</t>
+  </si>
+  <si>
+    <t>小心地滑：Wet Floor或者是CAUTIONA，不是中式翻译Slip Carefully</t>
   </si>
   <si>
     <r>
@@ -1727,6 +1751,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1/在英文中，老外表达“不开心”的情绪，并不会经常使用到sad.
 </t>
     </r>
@@ -1997,6 +2028,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">She is in a state of deep </t>
     </r>
     <r>
@@ -2022,6 +2060,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>她处于深深的</t>
     </r>
     <r>
@@ -2047,6 +2092,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Her face showed her </t>
     </r>
     <r>
@@ -2072,6 +2124,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>她因错过聚会而</t>
     </r>
     <r>
@@ -2097,6 +2156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The loser sat slumped in </t>
     </r>
     <r>
@@ -2125,6 +2191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Oh, I </t>
     </r>
     <r>
@@ -2150,6 +2223,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>“啊，我有时会感到</t>
     </r>
     <r>
@@ -2175,6 +2255,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">He gave up the struggle in </t>
     </r>
     <r>
@@ -2200,6 +2287,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -2225,6 +2319,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Poets were often visited by fits of </t>
     </r>
     <r>
@@ -2250,6 +2351,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>诗人常有一阵阵</t>
     </r>
     <r>
@@ -2275,6 +2383,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">An old man was sitting </t>
     </r>
     <r>
@@ -2300,6 +2415,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在阴暗处</t>
     </r>
     <r>
@@ -2315,6 +2437,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Her eyes dimmed with </t>
     </r>
     <r>
@@ -2330,6 +2459,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>悲痛</t>
     </r>
     <r>
@@ -2392,6 +2528,103 @@
 闹铃响你就起床了吗？</t>
   </si>
   <si>
+    <t>表示说的单词太多了，talk，speak，say，tell……
+“请说吧！”
+我们平时可能会用
+“Please say it”
+“Just speak out”
+“Tell me”
+……
+但老外在口语中很少这么说，容易给人一种太过正式，甚至带点命令的感觉。</t>
+  </si>
+  <si>
+    <t>① Shoot！
+shoot有多层意思：拍摄，射击，发射，射门。
+在口语中经常单独使用，表示“尽管说吧”“都可以说”！
+-Can I ask you a question?
+-Shoot.
+-我能问你个问题吗？
+-说吧。                                                                    ② Fire away！
+fire: 做动词时表示「射击，开火」
+fire away: 请说吧，请讲吧，请问吧。
+-I know you have questions. So fire away.
+-我知道你有很多问题要问，你问吧。
+-We're all ears, fire away!
+-我们洗耳恭听，你讲吧。</t>
+  </si>
+  <si>
+    <t>“再说一遍”怎么说？</t>
+  </si>
+  <si>
+    <r>
+      <t>01."Sorry?"
+当别人说话完而你没听懂时，可以诚恳地说一句 "Sorry?" 
+一般对方听到之后，会向你再次说明他/她在表达什么。 
+在英语的语境中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Sorry" 更多的时候不是在道歉，而是一种礼貌的语气词。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如果怕别人不理解，也可以在说 "sorry？" 时，加上肢体语言，身体稍向前倾，手放在耳朵处，能让对方更明白你的意思。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果想要完整地表达
+你还可以补充说：
+Sorry, but I missed that.
+I'm really sorry, I didn't hear/catch that.
+Sorry, I didn't get any of that.
+（抱歉啊，我真的没听到）</t>
+  </si>
+  <si>
+    <r>
+      <t>02."Pardon?"
+Pardon?
+Pardon me?
+I beg your pardon?
+03."Come again?"
+Come again? Sorry, I didn't hear you.
+能再说一遍吗，抱歉，我没听到。
+注意啦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Come again还有质疑别人意思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，想想看，当你质疑别人的话时，是不是也常说“你（给我）再说一遍?</t>
+    </r>
+  </si>
+  <si>
     <t>命运女神（the Fates）：掌管大地上所有人的命运。共有三位：克罗托（Clotho）纺织生命之线，拉刻西斯（Lachesis）决定生命之线的长度，阿特洛波斯（Atropos）切断生命之线。
 美惠三女神（The Graces）：宙斯和欧律诺墨的女儿；众神的歌舞演员，为人间带来诸美；分别是阿格莱亚（Aglaia,光辉女神）, 欧佛洛绪涅（Euphrosyne,欢乐女神）,塔利亚（Thalia,激励女神）。
 艺术女神（The Muses）：宙斯和泰坦Mnemosyne的女儿们，共有九人；亦称为缪斯或庇厄利亚的女神们（Pierides），因她们生于庇厄利亚地方。她们是卡拉培（Calliope，雄辩和叙事诗），克利欧（Clio，历史），乌拉妮娅（Urania，天文），梅耳珀弥妮（Melpomene，悲剧），塔利亚（Thalia，喜剧），特普斯歌利（Terpsichore，舞蹈），依蕾托（Erato，爱情诗），波利海妮娅（Polyhymnia，颂歌），优忒毗（Euterpe,抒情诗）。</t>
@@ -2405,10 +2638,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2433,8 +2666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2447,6 +2681,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2454,18 +2704,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2484,16 +2734,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2508,16 +2757,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2532,36 +2787,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2571,7 +2804,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2601,7 +2834,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2613,13 +2984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2631,133 +3002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2769,19 +3014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,6 +3025,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2852,19 +3096,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2887,8 +3120,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2900,10 +3133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2912,133 +3145,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3426,8 +3659,8 @@
   <sheetPr/>
   <dimension ref="A2:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3677,327 +3910,375 @@
       <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:2">
+    <row r="25" ht="43.2" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" ht="28.8" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" ht="43.2" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" ht="43.2" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" ht="43.2" spans="1:3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" ht="28.8" spans="1:2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" ht="129.6" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" ht="43.2" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" ht="28.8" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" ht="43.2" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" ht="115.2" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" ht="43.2" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" ht="115.2" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" ht="86.4" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" ht="273.6" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>140</v>
+      <c r="A63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>142</v>
+      <c r="A64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" ht="244.8" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" ht="129.6" spans="1:2">
+      <c r="A66" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" ht="172.8" spans="1:2">
+      <c r="A67" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="93" ht="201.6" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" ht="144" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/2019-6月.xlsx
+++ b/2019-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>电影《贫民窟的百万富翁》</t>
   </si>
@@ -2557,6 +2557,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>01."Sorry?"
 当别人说话完而你没听懂时，可以诚恳地说一句 "Sorry?" 
 一般对方听到之后，会向你再次说明他/她在表达什么。 
@@ -2594,6 +2601,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>02."Pardon?"
 Pardon?
 Pardon me?
@@ -2625,6 +2639,438 @@
     </r>
   </si>
   <si>
+    <t>No matter what happens, or how bad it seems today, life does go on, and it will be better tomorrow.</t>
+  </si>
+  <si>
+    <t>不管发生什么，不管今天看起来多么糟糕，生活都会继续，明天会更好。</t>
+  </si>
+  <si>
+    <t>Family show
+Money is running out.
+Toothpaste is running out.
+Toilet paper is running out.
+Toothpicks are running out.
+My pocket money is running out.</t>
+  </si>
+  <si>
+    <t>家庭剧场
+快没钱了。
+快没牙膏了。
+厕纸快用完了。
+牙签快用完了。
+我的零花钱快用完了。</t>
+  </si>
+  <si>
+    <t>No one can go with you for a lifetime. 
+so you’re have to adjust yourself be alone 
+No one will help you again and again. 
+so you have to fight all the time.</t>
+  </si>
+  <si>
+    <t>没有人会陪你走一辈子。
+所以你要适应孤独。
+没有人会帮你一辈子。
+所以你得一直奋斗</t>
+  </si>
+  <si>
+    <t>I paid her.
+I paid 40 dollars.
+I paid her 40 dollars.</t>
+  </si>
+  <si>
+    <r>
+      <t>pay用作动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候，表示付钱给（某人），其宾语通常是人或具体的钱，“付钱”不能直接说pay money，而是要这样说</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the meantime, other parts of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mobile payment market</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>growing quickly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>与此同时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移动支付市场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的其他领域正在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓬勃发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pay做名词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候，意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>薪水，工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，所以，“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移动支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”自然就不能说是“mobile pay”了，而要翻译为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mobile payment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Payment：付款，支付</t>
+    </r>
+  </si>
+  <si>
+    <t>Are you paying in cash or by card？</t>
+  </si>
+  <si>
+    <t>现金或是刷卡更适合老外。Cash payment和Card payment是西方两种主流的付款方式。
+Cash的意思是“现金”，在西方国家，外出购物或者就餐最常见的一句话就是这句了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You should carry some cash with you at all times—don't always depend on your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plastic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其中银行卡有很多种类，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“debit card 借记卡”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>credit card信用卡”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最为常见。由于卡片由塑料制成，所以在日常口语对话中，人们也会把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“银行卡”戏称为“palstic”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如这句</t>
+    </r>
+  </si>
+  <si>
+    <t>We give a 10% discount only for QR code payment.</t>
+  </si>
+  <si>
+    <r>
+      <t>对于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扫码付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我们才给予10%的优惠。
+我们常用二维码的英文是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QR code：quick response code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，翻译为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“快速响应码”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只需要轻轻一扫，手机终端就能够快速响应，执行下一步操作。
+扫码支付：QR code payment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> here！</t>
+    </r>
+  </si>
+  <si>
+    <t>我在这里！
+在口语中，over相当于我们的‘在’，要表示‘我在这儿’，要加一个over</t>
+  </si>
+  <si>
     <t>命运女神（the Fates）：掌管大地上所有人的命运。共有三位：克罗托（Clotho）纺织生命之线，拉刻西斯（Lachesis）决定生命之线的长度，阿特洛波斯（Atropos）切断生命之线。
 美惠三女神（The Graces）：宙斯和欧律诺墨的女儿；众神的歌舞演员，为人间带来诸美；分别是阿格莱亚（Aglaia,光辉女神）, 欧佛洛绪涅（Euphrosyne,欢乐女神）,塔利亚（Thalia,激励女神）。
 艺术女神（The Muses）：宙斯和泰坦Mnemosyne的女儿们，共有九人；亦称为缪斯或庇厄利亚的女神们（Pierides），因她们生于庇厄利亚地方。她们是卡拉培（Calliope，雄辩和叙事诗），克利欧（Clio，历史），乌拉妮娅（Urania，天文），梅耳珀弥妮（Melpomene，悲剧），塔利亚（Thalia，喜剧），特普斯歌利（Terpsichore，舞蹈），依蕾托（Erato，爱情诗），波利海妮娅（Polyhymnia，颂歌），优忒毗（Euterpe,抒情诗）。</t>
@@ -2639,8 +3085,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -2666,22 +3112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2697,50 +3127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2749,16 +3135,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2771,16 +3157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2796,6 +3181,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2804,7 +3250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2834,7 +3280,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,19 +3370,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2870,67 +3442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2942,79 +3460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3030,11 +3476,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3044,21 +3488,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,26 +3507,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3125,6 +3556,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3133,10 +3579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3145,7 +3591,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3154,128 +3600,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3294,11 +3740,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3659,8 +4108,8 @@
   <sheetPr/>
   <dimension ref="A2:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3921,7 +4370,7 @@
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3954,7 +4403,7 @@
       <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3976,12 +4425,12 @@
       <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3998,7 +4447,7 @@
       <c r="B32" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4128,10 +4577,10 @@
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4184,7 +4633,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -4211,7 +4660,7 @@
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4219,7 +4668,7 @@
       <c r="A61" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4248,37 +4697,109 @@
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="4" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="68" ht="28.8" spans="1:2">
+      <c r="A68" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" ht="86.4" spans="1:2">
+      <c r="A69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" ht="57.6" spans="1:2">
+      <c r="A70" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" ht="43.2" spans="1:2">
+      <c r="A71" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" ht="72" spans="1:2">
+      <c r="A72" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" ht="57.6" spans="1:2">
+      <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" ht="43.2" spans="1:2">
+      <c r="A74" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" ht="57.6" spans="1:2">
+      <c r="A75" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" ht="28.8" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="93" ht="201.6" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" ht="144" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/2019-6月.xlsx
+++ b/2019-6月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>电影《贫民窟的百万富翁》</t>
   </si>
@@ -787,10 +787,16 @@
     </r>
   </si>
   <si>
+    <t>I`m bored 我很无聊</t>
+  </si>
+  <si>
     <t>in a pig's eye/ear转喻“不可能”</t>
   </si>
   <si>
     <t>据说这个短语是源于19世纪时一种船上的游戏，其中有一个人被蒙上眼睛，转上3圈，然后要指出画在甲板上猪的眼睛，很少有人能成功做到这一点。</t>
+  </si>
+  <si>
+    <t>I`m boring 我是个无聊的人</t>
   </si>
   <si>
     <r>
@@ -859,6 +865,9 @@
     </r>
   </si>
   <si>
+    <t>fleet船队，还有快速的，跑得快的意思。不能中式英语的翻译成ship team</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -894,6 +903,9 @@
     <t>我很高兴你决定学习普通话。</t>
   </si>
   <si>
+    <t>Please take a set或Please have a set 请坐。小时候学的sit down please是不礼貌的，尤其是商务场合</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1001,6 +1013,51 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Hillbilly Cat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 直译过来是乡下的猫。中国粉丝给他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>猫王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的名字</t>
+    </r>
+  </si>
+  <si>
+    <t>cheat on来表示“不忠”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1091,6 +1148,9 @@
   </si>
   <si>
     <t>让梦想大于胆怯，让行动强于语言.</t>
+  </si>
+  <si>
+    <t>extra-marital affair表示“出轨”</t>
   </si>
   <si>
     <t>1.It's almost nine. Time to bed.
@@ -1107,6 +1167,28 @@
 4.别催我。
 5.9点前上床
 6.你需要足够的睡眠。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordinary 平凡的、普通的。说人普通用normal会有点冒犯，暗含贬义。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extra ordinary 超凡脱俗</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2679,6 +2761,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>pay用作动词</t>
     </r>
     <r>
@@ -2694,6 +2783,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">In the meantime, other parts of the </t>
     </r>
     <r>
@@ -2739,6 +2835,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>与此同时，</t>
     </r>
     <r>
@@ -2883,6 +2986,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">You should carry some cash with you at all times—don't always depend on your </t>
     </r>
     <r>
@@ -2908,6 +3018,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其中银行卡有很多种类，其中</t>
     </r>
     <r>
@@ -2976,6 +3093,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对于</t>
     </r>
     <r>
@@ -3043,6 +3167,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'm </t>
     </r>
     <r>
@@ -3069,6 +3200,2246 @@
   <si>
     <t>我在这里！
 在口语中，over相当于我们的‘在’，要表示‘我在这儿’，要加一个over</t>
+  </si>
+  <si>
+    <t>电影中的3种彩蛋：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Is there </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bonus scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after the credits?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>片尾有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>彩蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？
+电影彩蛋源自西方复活节找彩蛋的游戏,寓意为“Surprise”。
+一种是电影片尾的彩蛋，可以是精彩花絮，也可以是剧情小补充，甚至有一些在剧中死亡或者下场不明的人物，也会出现在彩蛋中告知下场，这些“彩蛋”英文叫做bonus scene，直译过来是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福利画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。这种在电影片尾再附加片段的手法被称为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“斯丁格”（stinger）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，是一种常常被人们忽略但却是电影中出彩的部分。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I'm told that this rabbit is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Easter egg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, but I don't know its reference.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别人告诉我（电影中的）这只兔子是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>彩蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是我不知道指的是什么。
+还有一种彩蛋，是出现在电影正片中的。比如导演的客串，异业合作，比如《名侦探柯南》中出现的《犬夜叉》杂志，漫威英雄作者Stanley爷爷经常客串各种路人甲等等。是一种隐性的“插科打诨”，可以达到幽默、诙谐、富有情趣和意味的效果。
+这种彩蛋被直接称之为Easter eggs，虽然字面上是“复活节彩蛋”的意思，但在这里指的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电影中的隐藏的小细节小惊喜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You are also advised to view this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>short</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for more details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我们建议您观看此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>短片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以获取更多资讯。
+有的电影，会在开始前播放一个短篇。比方说去年获得奥斯卡金像奖最佳动画短片奖的《包宝宝》，就是在《超人总动员2》电影前面播放的小短片。
+类似的“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贴片短篇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”在英文中被叫做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>short film</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简称short</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It must be really weird to be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big spender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成为土豪的感觉一定与众不同。                                                     在“黑色星期五”蹲点排队挥金如土的。
+这种买买买的人，一般会叫做big spender，用来表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花钱大手大脚的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也可以来代指“土豪”。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>He likes to show off by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blowing big bucks on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dinner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他总是喜欢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在餐厅花大钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来显摆。
+短语“Blow big bucks on…”意思就是“钱被大风吹走，花大钱”。
+关于buck这个单词，我们说到钱，最常使用的单词是money或者dollars，老外则比较喜欢用buck来代指钱。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">He just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plunked down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $25,000 for a new handbag.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他刚刚花了25000美元买了一个新的包包。
+对于不差钱的土豪而言，还有一个非常有“气势”的词组来表示“买买买”！
+plunk down本身这个词组有“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>落下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”的意思，但也可以用来表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“支付”时的那种干脆利落劲。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+想象一下，购物节之前你整理了一下购物车，收藏了一堆YSL、SK-2、Chanel、Dior、Gucci、Prada和Cartier，购物节零点一到，输入密码支付成功一气呵成，没有纠结，没有心痛，就像喝水和呼吸一样自然。plunk down就是这种感觉！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">He walked far into the woods to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make water</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他走了很远的路尽到了树林里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+英语中的“俚语文化”。make water正是一种比较地道而且流行的“小便、嘘嘘”的表达方式。它可不是字面上的“制作水”的意思，更不能在正式的商务场合直接说出来哦~</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Daddy, I need to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>爸爸，我要嘘嘘！
+pee也是用的比较多的“小便”的英语表达方法，因为比较口语化，小孩子使用的比较多，而且小朋友们也会用“wee”来表示小便。大朋友们就别这样说了！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">My friend，I gotta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tinkle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Catch you later.</t>
+    </r>
+  </si>
+  <si>
+    <t>朋友，我得去解个手，待会见！
+拟声词“Tinkle”也被脑洞清奇的老外拿过来作为“小便”的代名词。
+Tinkle：[ˈtɪŋkl] 叮咚声</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I need to go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restroom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以上几种表达，因为太过随意，仅限于与熟悉的朋友沟通的场合。
+如果是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商务场合或者其他正式的场合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，应该这样表达。需要再次强调的是，restroom是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>洗手间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”而不是休息室，在国外，人们很少会用WC来表示厕所，而是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会用比较得体的washroom以及restroom来替代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alice was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two-timing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> John with Fred</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>艾莉丝瞒着她的男朋友约翰和弗雷德约会。
+Two-time可不是“两次”，更不是“两个时间”，如果将它翻译的接地气一点，那就是 “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脚踏两只船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。
+two times才是两次的意思</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">His </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public persona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of good man is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ruined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他好男人的人设崩塌了
+“人设”可以说成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public persona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，
+“崩塌”可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ruin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go against</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来表示，
+如果某个明星的人设崩塌了，我们可以这样说：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The scandal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goes against</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> his longstanding "good husband" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>这个丑闻让他“好老公”的人设崩塌了。</t>
+  </si>
+  <si>
+    <t>We have become one</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我们结婚了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+结婚有很多种说法：
+1、get married
+2、Tie the knot 打个结，表示永结同心一心一意</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Could you give me a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ballpark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> figure？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你能给我一个大概的数字吗？                                                 ballpark愿意是棒球场，也可以表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>约略估计的数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与钱有关</t>
+    </r>
+  </si>
+  <si>
+    <t>虽然“黑”是black，但是你可千万别用black来形容“晒黑”的“黑”。
+对种族差异敏感的人，会十分介意用“black”和“white”来形容肤色。有些人会认为这两个单词是对黑人种族的歧视，从而引发不必要的争执。
+如果一个人本身很白，但是却被太阳晒黑，可以用tan来表示这种“黑”，如果天生就黑，则可以用dark来形容，如果一名小姐姐肤白貌美，说她很“white”也是不得体的行为。更多的时候，我们会有fair来表示皮肤的“白亮”。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Just look at my nice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>你看我黑的多好看！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The white dress showed off her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dark skin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> beautifully.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白色的裙子很好地衬托出她那</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黝黑的皮肤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sarah has typically British </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fair skin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>莎拉有着典型英国人的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白皙皮肤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You've got </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>light skin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>你的皮肤白的发亮。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果不想被晒黑，“防晒霜”是你必须要准备的。
+防晒霜用英文讲叫 sunscreen，它是一个由 sun + screen 构成的复合名词。同时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遮蔽物、掩护物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的意思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，汽车的挡风玻璃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也要用到它。</t>
+    </r>
+  </si>
+  <si>
+    <t>PA（Protection UVA）：防护时间
+SPF（Sun Protection Factor）：防晒系数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This is not the kind of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sunscreen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I want.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要的不是这种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防晒霜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I smell something </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fishy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我觉得有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>猫腻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。fishy 有猫腻，可疑的</t>
+    </r>
+  </si>
+  <si>
+    <t>除了“卧槽”之外，我们中国人最常用的英文感叹句，据统计是Oh my god这句话，但在西方，对于某些虔诚的宗教信仰者而言，用god来发泄情绪是对神的不敬。
+所以他们会很不高兴。
+当然也并非所有的基督教徒都是如此，但是我们还是要多学习一点它的替代英语说法，以备不时之需哦~</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Goodness！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It's the LiuHaoran himself, no less!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">老天！那是刘昊然他本人，一点不假！
+Goodness [ˈɡʊdnəs] n. 善良，美德，精华，养分
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Goodness！我的天呢！</t>
+    </r>
+  </si>
+  <si>
+    <t>之前重温《权利的游戏》，发现有一个常用的台词也可以表示惊讶，那就是：
+My word！
+它的意思就是“啊呀”，语气类似于我们所说的“卧槽”。</t>
+  </si>
+  <si>
+    <t>不过说起《权利的游戏》，一些同学会想起另外一句常见的“my lord”，虽然只差一个字母，但是意思却是天差地别，可别记混了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>My word!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> You are pregnant again！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天啊！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你又怀孕了！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I've been lost without you, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>my lord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有你我就迷失了方向，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blimey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！You're soaked through. Where's your car?</t>
+    </r>
+  </si>
+  <si>
+    <t>天呢！你都成落汤鸡了！你的车呢？
+一个不太常见的叹词是Blimey，通常会出现在英式口语中，音标是[ˈblaɪmi]，意思是“天哪！”“诶呀”Blimey [ˈblaɪmi] 天哪！（表示生气或者惊讶）</t>
+  </si>
+  <si>
+    <t>I'm broke</t>
+  </si>
+  <si>
+    <t>没有钱，破产  broke形容词：没钱，囊中羞涩</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’m too tired to cook. Why don’t we ask for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delivery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>累到不想做饭，我们为什么不叫个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呢？
+delivery意思是派送，其实delivery也可以指通过订餐，让商家把食物或者商品送到指定位置的行为。
+也就是我们所说的“外卖”了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在美式英语中，人们也会用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>takeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carryout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来表示或者“外卖，外带”。英式英语中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>takeaway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更加常见，
+但与delivery不同的是，这里的“外卖”指的是你去店里点好餐之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“打包带走”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。表示“外卖食物”时，takeout是不可数名词，而takeaway和carryout是可数名词。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在KFC点完餐后，服务员肯定会问：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For here or takeout?
+打包还是在这里吃？</t>
+    </r>
+  </si>
+  <si>
+    <t>Let’s order something for delivery！</t>
+  </si>
+  <si>
+    <t>Order delivery：点外卖
+Order out：点外卖
+Call the delivery service：打电话叫外卖</t>
+  </si>
+  <si>
+    <t>I got my hair cut</t>
+  </si>
+  <si>
+    <t>剪头发 表达别人为你服务，要用have/get/make这类使役动词</t>
+  </si>
+  <si>
+    <t>I cut my hair</t>
+  </si>
+  <si>
+    <t>更偏向于“自己动手”</t>
+  </si>
+  <si>
+    <t>地铁在不同地区的说法：</t>
+  </si>
+  <si>
+    <t>在北京地铁叫做Subway，                                  在上海地铁叫做Metro，                                   在香港地铁则叫做MTR                                     香港地铁：Mass Transit Railway，简称MTR；
+台湾地铁：Mass Rapid Transit，简称MRT，</t>
+  </si>
+  <si>
+    <t>subway</t>
+  </si>
+  <si>
+    <r>
+      <t>Subway是一个合成词，其中sub表示“在……下面”，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在地下的道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通常也就是地铁了，它作为地铁名称，常见于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纽约和北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等地。
+但是在中国，只有少数几个城市的地铁叫做subway。                                                 而在英式英语中，subway大多指“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地下过街通道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，并不一定表示地铁，所以说如果有英国小伙伴向你咨询subway的时候，记得分辨他说的是“地铁”还是“地下通道”。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The majority of us feel worried if we walk through a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大多数人在走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地下通道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时都感到害怕。</t>
+    </r>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <r>
+      <t>Metro在中国更加常见，深圳上海杭州以及一些新兴的一线城市，地铁统一称之为metro.
+Metro这个词源于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法语单词métro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它作为地铁的口语化表达，完整说法是metropolitan railroad/railway，从字面上看就是城市里的铁路，来自于法语chemin de fer métropolitain。                                       全世界大多数城市的地铁都被称为metro，它已经成为地铁世界通用的名称。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We ride the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the post office.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘地铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到了邮局。</t>
+    </r>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <r>
+      <t>Underground的原本意思是“地下的，隐秘的，秘密的”，在世界上，只有伦敦的地铁称之为London Underground.                                  同时，伦敦地铁还有另外一个专有称呼是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Tube</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，原本意思是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为伦敦地铁的通道是管子形状的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by underground</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; it'll take you forever if you go by bus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>坐地铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去吧！要是你乘公共汽车去，得花很长的时间。</t>
+    </r>
   </si>
   <si>
     <t>命运女神（the Fates）：掌管大地上所有人的命运。共有三位：克罗托（Clotho）纺织生命之线，拉刻西斯（Lachesis）决定生命之线的长度，阿特洛波斯（Atropos）切断生命之线。
@@ -3086,10 +5457,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3112,16 +5483,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0070C0"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF595959"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3135,9 +5556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3151,74 +5571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3242,6 +5595,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3250,7 +5619,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3270,6 +5661,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3280,13 +5677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3298,7 +5707,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,25 +5791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3346,73 +5809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3424,7 +5827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3436,31 +5851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3471,15 +5868,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3509,11 +5897,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3529,6 +5915,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3557,17 +5958,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3579,10 +5976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3591,137 +5988,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3746,13 +6143,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -4106,10 +6509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C94"/>
+  <dimension ref="A2:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -4451,355 +6854,719 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" ht="28.8" spans="1:2">
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="1:3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" ht="129.6" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" ht="129.6" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" ht="57.6" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" ht="43.2" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" ht="43.2" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" ht="28.8" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" ht="28.8" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" ht="86.4" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" ht="86.4" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" ht="43.2" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" ht="115.2" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" ht="43.2" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" ht="115.2" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" ht="86.4" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" ht="273.6" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="11" t="s">
-        <v>135</v>
+      <c r="A57" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="8" t="s">
-        <v>157</v>
+      <c r="A68" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>160</v>
+      <c r="A69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>162</v>
+      <c r="A70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>164</v>
+      <c r="A71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="72" ht="72" spans="1:2">
-      <c r="A72" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>166</v>
+      <c r="A72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="73" ht="57.6" spans="1:2">
       <c r="A73" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="74" ht="43.2" spans="1:2">
-      <c r="A74" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>170</v>
+      <c r="A74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="75" ht="57.6" spans="1:2">
-      <c r="A75" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>172</v>
+      <c r="A75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="76" ht="28.8" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" ht="201.6" spans="1:1">
+        <v>181</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" ht="41" customHeight="1" spans="1:2">
+      <c r="A77" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" ht="100.8" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" ht="100.8" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" ht="72" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" ht="57.6" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" ht="72" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" ht="158.4" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" ht="72" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" ht="72" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" ht="57.6" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" ht="57.6" spans="1:2">
+      <c r="A87" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" ht="57.6" spans="1:2">
+      <c r="A88" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" ht="72" spans="1:2">
+      <c r="A89" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" ht="28.8" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" ht="72" spans="1:2">
+      <c r="A91" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" ht="28.8" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" ht="158.4" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="94" ht="144" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>176</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" ht="72" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" ht="115.2" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" ht="57.6" spans="1:2">
+      <c r="A102" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" ht="72" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" ht="15.6" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" ht="15.6" spans="1:2">
+      <c r="A105" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" ht="72" spans="1:2">
+      <c r="A106" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" ht="72" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" ht="86.4" spans="1:2">
+      <c r="A109" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" ht="43.2" spans="1:2">
+      <c r="A110" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" ht="72" spans="1:1">
+      <c r="A114" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" ht="100.8" spans="1:2">
+      <c r="A115" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" ht="100.8" spans="1:2">
+      <c r="A117" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" ht="57.6" spans="1:2">
+      <c r="A119" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" ht="201.6" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" ht="144" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/2019-6月.xlsx
+++ b/2019-6月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="14508" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>电影《贫民窟的百万富翁》</t>
   </si>
@@ -1266,6 +1266,9 @@
     <t>无论你犯了多少错，或者进步得有多慢，你都走在了那些不曾尝试的人的前面。</t>
   </si>
   <si>
+    <t>garbage 美国加拿大等美语国家</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1332,6 +1335,9 @@
     </r>
   </si>
   <si>
+    <t>rubbish 英国。garbage和rubbish还可以用来比喻没有价值的东西，或者瞎话以及废话</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1365,6 +1371,31 @@
   </si>
   <si>
     <t>你早该开始工作了。</t>
+  </si>
+  <si>
+    <r>
+      <t>Eat crow 美国口语中表示“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被迫做丢脸的事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，人们认为crow非常难吃，被迫承认自己的错误就跟吃乌鸦一样</t>
+    </r>
   </si>
   <si>
     <t>如果是中国人的话，自然能理解我们所说的high的含义，那就是“开心，畅快”，但在英文中，high却没有这一层意思，相反，high的用法会与毒品有关。
@@ -4974,6 +5005,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I’m too tired to cook. Why don’t we ask for </t>
     </r>
     <r>
@@ -4999,6 +5037,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>累到不想做饭，我们为什么不叫个</t>
     </r>
     <r>
@@ -5026,6 +5071,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在美式英语中，人们也会用</t>
     </r>
     <r>
@@ -5112,6 +5164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在KFC点完餐后，服务员肯定会问：
 </t>
     </r>
@@ -5160,6 +5219,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Subway是一个合成词，其中sub表示“在……下面”，</t>
     </r>
     <r>
@@ -5226,6 +5292,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The majority of us feel worried if we walk through a </t>
     </r>
     <r>
@@ -5251,6 +5324,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>大多数人在走</t>
     </r>
     <r>
@@ -5279,6 +5359,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Metro在中国更加常见，深圳上海杭州以及一些新兴的一线城市，地铁统一称之为metro.
 Metro这个词源于</t>
     </r>
@@ -5305,6 +5392,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">We ride the </t>
     </r>
     <r>
@@ -5330,6 +5424,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们</t>
     </r>
     <r>
@@ -5358,6 +5459,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Underground的原本意思是“地下的，隐秘的，秘密的”，在世界上，只有伦敦的地铁称之为London Underground.                                  同时，伦敦地铁还有另外一个专有称呼是“</t>
     </r>
     <r>
@@ -5403,6 +5511,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Go </t>
     </r>
     <r>
@@ -5428,6 +5543,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>坐地铁</t>
     </r>
     <r>
@@ -5439,6 +5561,326 @@
         <scheme val="minor"/>
       </rPr>
       <t>去吧！要是你乘公共汽车去，得花很长的时间。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They lived happily </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ever after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，separately.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一别两宽，各生欢喜。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自从。。。以后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   《爱乐之城》的一句台词</t>
+    </r>
+  </si>
+  <si>
+    <t>Everything happens for a reason.</t>
+  </si>
+  <si>
+    <t>一切都是最好的安排。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You two are a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perfect match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你们两个真是郎才女貌，天生一对。
+在这个句子中，perfect match的意思就是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完美的配对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，经常被用来赞美夫妻、情侣仿佛命运安排的一样，无比契合。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be meant to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> play the piano.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你就是注定要弹钢琴的（你就是弹钢琴的那块料）。
+一个短语叫做be meant to，意思是“命中注定”。不仅可以表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>男女之间的缘分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，还可以表示“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理应发生的某事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>虽然在英语中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>离婚是divorce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但很多人出于体面，不会直接说这个词。而是会用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>break up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来代替，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My wife had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>broken up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with me.</t>
+    </r>
+  </si>
+  <si>
+    <t>我的女朋友已跟我离婚了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>broken up</t>
+    </r>
+  </si>
+  <si>
+    <t>我们已经结束了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Where is your husband?
+-Oh，we're </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在相应语境下也有“分手、离婚”的意思，比方说：</t>
     </r>
   </si>
   <si>
@@ -5455,10 +5897,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5503,19 +5945,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5527,37 +5982,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5570,10 +5995,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5593,25 +6043,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5625,8 +6058,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5634,14 +6076,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5677,7 +6119,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5695,91 +6245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5791,19 +6257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5821,13 +6281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5839,25 +6299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5880,6 +6322,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5895,11 +6348,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5915,21 +6383,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5952,19 +6405,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5976,10 +6418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5988,133 +6430,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6143,6 +6585,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6152,14 +6600,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6511,8 +6956,8 @@
   <sheetPr/>
   <dimension ref="A2:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6936,637 +7381,707 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" ht="43.2" spans="1:2">
+    <row r="41" ht="43.2" spans="1:3">
       <c r="A41" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" ht="115.2" spans="1:2">
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="115.2" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" ht="57.6" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" ht="43.2" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="115.2" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" ht="86.4" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" ht="273.6" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" ht="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" ht="57.6" spans="1:2">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" ht="43.2" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" ht="57.6" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" ht="28.8" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="8" t="s">
-        <v>183</v>
+      <c r="A77" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" ht="100.8" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" ht="72" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" ht="57.6" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" ht="72" spans="1:2">
       <c r="A82" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" ht="158.4" spans="1:2">
       <c r="A83" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" ht="72" spans="1:2">
       <c r="A84" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" ht="72" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" ht="57.6" spans="1:2">
       <c r="A86" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" ht="57.6" spans="1:2">
       <c r="A87" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" ht="57.6" spans="1:2">
       <c r="A88" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" ht="72" spans="1:2">
       <c r="A89" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" ht="28.8" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" ht="28.8" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" ht="72" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" ht="57.6" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="9" t="s">
-        <v>234</v>
+      <c r="A104" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="10" t="s">
-        <v>236</v>
+      <c r="A105" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" ht="72" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" ht="72" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="109" ht="86.4" spans="1:2">
-      <c r="A109" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>245</v>
+      <c r="A109" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="110" ht="43.2" spans="1:2">
       <c r="A110" t="s">
-        <v>246</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="12" t="s">
-        <v>253</v>
+      <c r="A114" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="115" ht="100.8" spans="1:2">
       <c r="A115" t="s">
-        <v>254</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" ht="100.8" spans="1:2">
       <c r="A117" t="s">
-        <v>258</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" ht="57.6" spans="1:2">
       <c r="A119" t="s">
-        <v>262</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" ht="43.2" spans="1:2">
+      <c r="A123" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" ht="43.2" spans="1:2">
+      <c r="A124" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" ht="28.8" spans="1:1">
+      <c r="A125" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" ht="28.8" spans="1:2">
+      <c r="A128" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
